--- a/output.xlsx
+++ b/output.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J214"/>
+  <dimension ref="A1:G214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -402,21 +402,6 @@
           <t>结论</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>井段Start</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>井段End</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>重计算厚度</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -444,15 +429,6 @@
           <t>差</t>
         </is>
       </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1058.81</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1048.81</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -480,15 +456,6 @@
           <t>中</t>
         </is>
       </c>
-      <c r="H3" t="n">
-        <v>1058.81</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1060.41</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1.600000000000136</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -516,15 +483,6 @@
           <t>差</t>
         </is>
       </c>
-      <c r="H4" t="n">
-        <v>1060.41</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1064.09</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.679999999999836</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -552,15 +510,6 @@
           <t>中</t>
         </is>
       </c>
-      <c r="H5" t="n">
-        <v>1064.09</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1065.25</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1.160000000000082</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -588,15 +537,6 @@
           <t>差</t>
         </is>
       </c>
-      <c r="H6" t="n">
-        <v>1065.25</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1081.78</v>
-      </c>
-      <c r="J6" t="n">
-        <v>16.52999999999997</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -624,15 +564,6 @@
           <t>中</t>
         </is>
       </c>
-      <c r="H7" t="n">
-        <v>1081.78</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1083.72</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1.940000000000055</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -660,15 +591,6 @@
           <t>差</t>
         </is>
       </c>
-      <c r="H8" t="n">
-        <v>1083.72</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1108.84</v>
-      </c>
-      <c r="J8" t="n">
-        <v>25.11999999999989</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -696,15 +618,6 @@
           <t>中</t>
         </is>
       </c>
-      <c r="H9" t="n">
-        <v>1108.84</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1110.19</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1.350000000000136</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -732,15 +645,6 @@
           <t>差</t>
         </is>
       </c>
-      <c r="H10" t="n">
-        <v>1110.19</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1122.88</v>
-      </c>
-      <c r="J10" t="n">
-        <v>12.69000000000005</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -768,15 +672,6 @@
           <t>中</t>
         </is>
       </c>
-      <c r="H11" t="n">
-        <v>1122.88</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1124.41</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1.529999999999973</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -804,15 +699,6 @@
           <t>差</t>
         </is>
       </c>
-      <c r="H12" t="n">
-        <v>1124.41</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1130.31</v>
-      </c>
-      <c r="J12" t="n">
-        <v>5.899999999999864</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -840,15 +726,6 @@
           <t>中</t>
         </is>
       </c>
-      <c r="H13" t="n">
-        <v>1130.31</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1132.06</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1.75</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -876,15 +753,6 @@
           <t>差</t>
         </is>
       </c>
-      <c r="H14" t="n">
-        <v>1132.06</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1151.19</v>
-      </c>
-      <c r="J14" t="n">
-        <v>19.13000000000011</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -912,15 +780,6 @@
           <t>中</t>
         </is>
       </c>
-      <c r="H15" t="n">
-        <v>1151.19</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1154.19</v>
-      </c>
-      <c r="J15" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -948,15 +807,6 @@
           <t>差</t>
         </is>
       </c>
-      <c r="H16" t="n">
-        <v>1154.19</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1186.81</v>
-      </c>
-      <c r="J16" t="n">
-        <v>32.61999999999989</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -984,15 +834,6 @@
           <t>中</t>
         </is>
       </c>
-      <c r="H17" t="n">
-        <v>1186.81</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1188.97</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2.160000000000082</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1020,15 +861,6 @@
           <t>差</t>
         </is>
       </c>
-      <c r="H18" t="n">
-        <v>1188.97</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1193.22</v>
-      </c>
-      <c r="J18" t="n">
-        <v>4.25</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1056,15 +888,6 @@
           <t>中</t>
         </is>
       </c>
-      <c r="H19" t="n">
-        <v>1193.22</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1197.75</v>
-      </c>
-      <c r="J19" t="n">
-        <v>4.529999999999973</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1092,15 +915,6 @@
           <t>差</t>
         </is>
       </c>
-      <c r="H20" t="n">
-        <v>1197.75</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1205.56</v>
-      </c>
-      <c r="J20" t="n">
-        <v>7.809999999999945</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1128,15 +942,6 @@
           <t>中</t>
         </is>
       </c>
-      <c r="H21" t="n">
-        <v>1205.56</v>
-      </c>
-      <c r="I21" t="n">
-        <v>1206.81</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1.25</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1164,15 +969,6 @@
           <t>差</t>
         </is>
       </c>
-      <c r="H22" t="n">
-        <v>1206.81</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1244.44</v>
-      </c>
-      <c r="J22" t="n">
-        <v>37.63000000000011</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1200,15 +996,6 @@
           <t>中</t>
         </is>
       </c>
-      <c r="H23" t="n">
-        <v>1244.44</v>
-      </c>
-      <c r="I23" t="n">
-        <v>1248.31</v>
-      </c>
-      <c r="J23" t="n">
-        <v>3.869999999999891</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1236,15 +1023,6 @@
           <t>差</t>
         </is>
       </c>
-      <c r="H24" t="n">
-        <v>1248.31</v>
-      </c>
-      <c r="I24" t="n">
-        <v>1257.97</v>
-      </c>
-      <c r="J24" t="n">
-        <v>9.660000000000082</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1272,15 +1050,6 @@
           <t>中</t>
         </is>
       </c>
-      <c r="H25" t="n">
-        <v>1257.97</v>
-      </c>
-      <c r="I25" t="n">
-        <v>1269.62</v>
-      </c>
-      <c r="J25" t="n">
-        <v>11.64999999999986</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1308,15 +1077,6 @@
           <t>差</t>
         </is>
       </c>
-      <c r="H26" t="n">
-        <v>1269.62</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1271.41</v>
-      </c>
-      <c r="J26" t="n">
-        <v>1.790000000000191</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1344,15 +1104,6 @@
           <t>中</t>
         </is>
       </c>
-      <c r="H27" t="n">
-        <v>1271.41</v>
-      </c>
-      <c r="I27" t="n">
-        <v>1272.62</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1.209999999999809</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1380,15 +1131,6 @@
           <t>差</t>
         </is>
       </c>
-      <c r="H28" t="n">
-        <v>1272.62</v>
-      </c>
-      <c r="I28" t="n">
-        <v>1274.88</v>
-      </c>
-      <c r="J28" t="n">
-        <v>2.260000000000218</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1416,15 +1158,6 @@
           <t>中</t>
         </is>
       </c>
-      <c r="H29" t="n">
-        <v>1274.88</v>
-      </c>
-      <c r="I29" t="n">
-        <v>1280.19</v>
-      </c>
-      <c r="J29" t="n">
-        <v>5.309999999999945</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1452,15 +1185,6 @@
           <t>差</t>
         </is>
       </c>
-      <c r="H30" t="n">
-        <v>1280.19</v>
-      </c>
-      <c r="I30" t="n">
-        <v>1288.94</v>
-      </c>
-      <c r="J30" t="n">
-        <v>8.75</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1488,15 +1212,6 @@
           <t>中</t>
         </is>
       </c>
-      <c r="H31" t="n">
-        <v>1288.94</v>
-      </c>
-      <c r="I31" t="n">
-        <v>1290.75</v>
-      </c>
-      <c r="J31" t="n">
-        <v>1.809999999999945</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1524,15 +1239,6 @@
           <t>差</t>
         </is>
       </c>
-      <c r="H32" t="n">
-        <v>1290.75</v>
-      </c>
-      <c r="I32" t="n">
-        <v>1300.31</v>
-      </c>
-      <c r="J32" t="n">
-        <v>9.559999999999945</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1560,15 +1266,6 @@
           <t>中</t>
         </is>
       </c>
-      <c r="H33" t="n">
-        <v>1300.31</v>
-      </c>
-      <c r="I33" t="n">
-        <v>1302.88</v>
-      </c>
-      <c r="J33" t="n">
-        <v>2.570000000000164</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1596,15 +1293,6 @@
           <t>差</t>
         </is>
       </c>
-      <c r="H34" t="n">
-        <v>1302.88</v>
-      </c>
-      <c r="I34" t="n">
-        <v>1304.38</v>
-      </c>
-      <c r="J34" t="n">
-        <v>1.5</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1632,15 +1320,6 @@
           <t>中</t>
         </is>
       </c>
-      <c r="H35" t="n">
-        <v>1304.38</v>
-      </c>
-      <c r="I35" t="n">
-        <v>1306.91</v>
-      </c>
-      <c r="J35" t="n">
-        <v>2.529999999999973</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1668,15 +1347,6 @@
           <t>差</t>
         </is>
       </c>
-      <c r="H36" t="n">
-        <v>1306.91</v>
-      </c>
-      <c r="I36" t="n">
-        <v>1308.5</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1.589999999999918</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1704,15 +1374,6 @@
           <t>中</t>
         </is>
       </c>
-      <c r="H37" t="n">
-        <v>1308.5</v>
-      </c>
-      <c r="I37" t="n">
-        <v>1313.91</v>
-      </c>
-      <c r="J37" t="n">
-        <v>5.410000000000082</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1740,15 +1401,6 @@
           <t>差</t>
         </is>
       </c>
-      <c r="H38" t="n">
-        <v>1313.91</v>
-      </c>
-      <c r="I38" t="n">
-        <v>1325.66</v>
-      </c>
-      <c r="J38" t="n">
-        <v>11.75</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1776,15 +1428,6 @@
           <t>中</t>
         </is>
       </c>
-      <c r="H39" t="n">
-        <v>1325.66</v>
-      </c>
-      <c r="I39" t="n">
-        <v>1331.19</v>
-      </c>
-      <c r="J39" t="n">
-        <v>5.529999999999973</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1812,15 +1455,6 @@
           <t>差</t>
         </is>
       </c>
-      <c r="H40" t="n">
-        <v>1331.19</v>
-      </c>
-      <c r="I40" t="n">
-        <v>1368.84</v>
-      </c>
-      <c r="J40" t="n">
-        <v>37.64999999999986</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1848,15 +1482,6 @@
           <t>中</t>
         </is>
       </c>
-      <c r="H41" t="n">
-        <v>1368.84</v>
-      </c>
-      <c r="I41" t="n">
-        <v>1371.97</v>
-      </c>
-      <c r="J41" t="n">
-        <v>3.130000000000109</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1884,15 +1509,6 @@
           <t>差</t>
         </is>
       </c>
-      <c r="H42" t="n">
-        <v>1371.97</v>
-      </c>
-      <c r="I42" t="n">
-        <v>1374.69</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2.720000000000027</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1920,15 +1536,6 @@
           <t>中</t>
         </is>
       </c>
-      <c r="H43" t="n">
-        <v>1374.69</v>
-      </c>
-      <c r="I43" t="n">
-        <v>1375.81</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1.119999999999891</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1956,15 +1563,6 @@
           <t>差</t>
         </is>
       </c>
-      <c r="H44" t="n">
-        <v>1375.81</v>
-      </c>
-      <c r="I44" t="n">
-        <v>1393.16</v>
-      </c>
-      <c r="J44" t="n">
-        <v>17.35000000000014</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1992,15 +1590,6 @@
           <t>中</t>
         </is>
       </c>
-      <c r="H45" t="n">
-        <v>1393.16</v>
-      </c>
-      <c r="I45" t="n">
-        <v>1399.19</v>
-      </c>
-      <c r="J45" t="n">
-        <v>6.029999999999973</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2028,15 +1617,6 @@
           <t>差</t>
         </is>
       </c>
-      <c r="H46" t="n">
-        <v>1399.19</v>
-      </c>
-      <c r="I46" t="n">
-        <v>1406.53</v>
-      </c>
-      <c r="J46" t="n">
-        <v>7.339999999999918</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2064,15 +1644,6 @@
           <t>中</t>
         </is>
       </c>
-      <c r="H47" t="n">
-        <v>1406.53</v>
-      </c>
-      <c r="I47" t="n">
-        <v>1409.84</v>
-      </c>
-      <c r="J47" t="n">
-        <v>3.309999999999945</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2100,15 +1671,6 @@
           <t>差</t>
         </is>
       </c>
-      <c r="H48" t="n">
-        <v>1409.84</v>
-      </c>
-      <c r="I48" t="n">
-        <v>1461.81</v>
-      </c>
-      <c r="J48" t="n">
-        <v>51.97000000000003</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2136,15 +1698,6 @@
           <t>中</t>
         </is>
       </c>
-      <c r="H49" t="n">
-        <v>1461.81</v>
-      </c>
-      <c r="I49" t="n">
-        <v>1465.88</v>
-      </c>
-      <c r="J49" t="n">
-        <v>4.070000000000164</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2172,15 +1725,6 @@
           <t>差</t>
         </is>
       </c>
-      <c r="H50" t="n">
-        <v>1465.88</v>
-      </c>
-      <c r="I50" t="n">
-        <v>1468.56</v>
-      </c>
-      <c r="J50" t="n">
-        <v>2.679999999999836</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2208,15 +1752,6 @@
           <t>中</t>
         </is>
       </c>
-      <c r="H51" t="n">
-        <v>1468.56</v>
-      </c>
-      <c r="I51" t="n">
-        <v>1471.5</v>
-      </c>
-      <c r="J51" t="n">
-        <v>2.940000000000055</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2244,15 +1779,6 @@
           <t>差</t>
         </is>
       </c>
-      <c r="H52" t="n">
-        <v>1471.5</v>
-      </c>
-      <c r="I52" t="n">
-        <v>1506.53</v>
-      </c>
-      <c r="J52" t="n">
-        <v>35.02999999999997</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2280,15 +1806,6 @@
           <t>中</t>
         </is>
       </c>
-      <c r="H53" t="n">
-        <v>1506.53</v>
-      </c>
-      <c r="I53" t="n">
-        <v>1507.56</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1.029999999999973</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2316,15 +1833,6 @@
           <t>差</t>
         </is>
       </c>
-      <c r="H54" t="n">
-        <v>1507.56</v>
-      </c>
-      <c r="I54" t="n">
-        <v>1532.44</v>
-      </c>
-      <c r="J54" t="n">
-        <v>24.88000000000011</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2352,15 +1860,6 @@
           <t>中</t>
         </is>
       </c>
-      <c r="H55" t="n">
-        <v>1532.44</v>
-      </c>
-      <c r="I55" t="n">
-        <v>1534.16</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1.720000000000027</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2388,15 +1887,6 @@
           <t>差</t>
         </is>
       </c>
-      <c r="H56" t="n">
-        <v>1534.16</v>
-      </c>
-      <c r="I56" t="n">
-        <v>1542.09</v>
-      </c>
-      <c r="J56" t="n">
-        <v>7.929999999999836</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2424,15 +1914,6 @@
           <t>中</t>
         </is>
       </c>
-      <c r="H57" t="n">
-        <v>1542.09</v>
-      </c>
-      <c r="I57" t="n">
-        <v>1547.72</v>
-      </c>
-      <c r="J57" t="n">
-        <v>5.630000000000109</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2460,15 +1941,6 @@
           <t>差</t>
         </is>
       </c>
-      <c r="H58" t="n">
-        <v>1547.72</v>
-      </c>
-      <c r="I58" t="n">
-        <v>1551.88</v>
-      </c>
-      <c r="J58" t="n">
-        <v>4.160000000000082</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2496,15 +1968,6 @@
           <t>中</t>
         </is>
       </c>
-      <c r="H59" t="n">
-        <v>1551.88</v>
-      </c>
-      <c r="I59" t="n">
-        <v>1554.31</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2.429999999999836</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2532,15 +1995,6 @@
           <t>差</t>
         </is>
       </c>
-      <c r="H60" t="n">
-        <v>1554.31</v>
-      </c>
-      <c r="I60" t="n">
-        <v>1582.59</v>
-      </c>
-      <c r="J60" t="n">
-        <v>28.27999999999997</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2568,15 +2022,6 @@
           <t>中</t>
         </is>
       </c>
-      <c r="H61" t="n">
-        <v>1582.59</v>
-      </c>
-      <c r="I61" t="n">
-        <v>1589.69</v>
-      </c>
-      <c r="J61" t="n">
-        <v>7.100000000000136</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2604,15 +2049,6 @@
           <t>差</t>
         </is>
       </c>
-      <c r="H62" t="n">
-        <v>1589.69</v>
-      </c>
-      <c r="I62" t="n">
-        <v>1595.91</v>
-      </c>
-      <c r="J62" t="n">
-        <v>6.220000000000027</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2640,15 +2076,6 @@
           <t>中</t>
         </is>
       </c>
-      <c r="H63" t="n">
-        <v>1595.91</v>
-      </c>
-      <c r="I63" t="n">
-        <v>1598.69</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2.779999999999973</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2676,15 +2103,6 @@
           <t>差</t>
         </is>
       </c>
-      <c r="H64" t="n">
-        <v>1598.69</v>
-      </c>
-      <c r="I64" t="n">
-        <v>1601.53</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2.839999999999918</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2712,15 +2130,6 @@
           <t>中</t>
         </is>
       </c>
-      <c r="H65" t="n">
-        <v>1601.53</v>
-      </c>
-      <c r="I65" t="n">
-        <v>1603.66</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2.130000000000109</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2748,15 +2157,6 @@
           <t>差</t>
         </is>
       </c>
-      <c r="H66" t="n">
-        <v>1603.66</v>
-      </c>
-      <c r="I66" t="n">
-        <v>1608.69</v>
-      </c>
-      <c r="J66" t="n">
-        <v>5.029999999999973</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2784,15 +2184,6 @@
           <t>中</t>
         </is>
       </c>
-      <c r="H67" t="n">
-        <v>1608.69</v>
-      </c>
-      <c r="I67" t="n">
-        <v>1616.25</v>
-      </c>
-      <c r="J67" t="n">
-        <v>7.559999999999945</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2820,15 +2211,6 @@
           <t>差</t>
         </is>
       </c>
-      <c r="H68" t="n">
-        <v>1616.25</v>
-      </c>
-      <c r="I68" t="n">
-        <v>1618.34</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2.089999999999918</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2856,15 +2238,6 @@
           <t>中</t>
         </is>
       </c>
-      <c r="H69" t="n">
-        <v>1618.34</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1627.03</v>
-      </c>
-      <c r="J69" t="n">
-        <v>8.690000000000055</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2892,15 +2265,6 @@
           <t>差</t>
         </is>
       </c>
-      <c r="H70" t="n">
-        <v>1627.03</v>
-      </c>
-      <c r="I70" t="n">
-        <v>1628.25</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1.220000000000027</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2928,15 +2292,6 @@
           <t>中</t>
         </is>
       </c>
-      <c r="H71" t="n">
-        <v>1628.25</v>
-      </c>
-      <c r="I71" t="n">
-        <v>1703.41</v>
-      </c>
-      <c r="J71" t="n">
-        <v>75.16000000000008</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2964,15 +2319,6 @@
           <t>差</t>
         </is>
       </c>
-      <c r="H72" t="n">
-        <v>1703.41</v>
-      </c>
-      <c r="I72" t="n">
-        <v>1705.5</v>
-      </c>
-      <c r="J72" t="n">
-        <v>2.089999999999918</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3000,15 +2346,6 @@
           <t>中</t>
         </is>
       </c>
-      <c r="H73" t="n">
-        <v>1705.5</v>
-      </c>
-      <c r="I73" t="n">
-        <v>1719.28</v>
-      </c>
-      <c r="J73" t="n">
-        <v>13.77999999999997</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3036,15 +2373,6 @@
           <t>差</t>
         </is>
       </c>
-      <c r="H74" t="n">
-        <v>1719.28</v>
-      </c>
-      <c r="I74" t="n">
-        <v>1725.78</v>
-      </c>
-      <c r="J74" t="n">
-        <v>6.5</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3072,15 +2400,6 @@
           <t>中</t>
         </is>
       </c>
-      <c r="H75" t="n">
-        <v>1725.78</v>
-      </c>
-      <c r="I75" t="n">
-        <v>1727.09</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1.309999999999945</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3108,15 +2427,6 @@
           <t>差</t>
         </is>
       </c>
-      <c r="H76" t="n">
-        <v>1727.09</v>
-      </c>
-      <c r="I76" t="n">
-        <v>1730.84</v>
-      </c>
-      <c r="J76" t="n">
-        <v>3.75</v>
-      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3144,15 +2454,6 @@
           <t>中</t>
         </is>
       </c>
-      <c r="H77" t="n">
-        <v>1730.84</v>
-      </c>
-      <c r="I77" t="n">
-        <v>1745.84</v>
-      </c>
-      <c r="J77" t="n">
-        <v>15</v>
-      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3180,15 +2481,6 @@
           <t>差</t>
         </is>
       </c>
-      <c r="H78" t="n">
-        <v>1745.84</v>
-      </c>
-      <c r="I78" t="n">
-        <v>1750.31</v>
-      </c>
-      <c r="J78" t="n">
-        <v>4.470000000000027</v>
-      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3216,15 +2508,6 @@
           <t>中</t>
         </is>
       </c>
-      <c r="H79" t="n">
-        <v>1750.31</v>
-      </c>
-      <c r="I79" t="n">
-        <v>1752.75</v>
-      </c>
-      <c r="J79" t="n">
-        <v>2.440000000000055</v>
-      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3252,15 +2535,6 @@
           <t>差</t>
         </is>
       </c>
-      <c r="H80" t="n">
-        <v>1752.75</v>
-      </c>
-      <c r="I80" t="n">
-        <v>1754.03</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1.279999999999973</v>
-      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3288,15 +2562,6 @@
           <t>中</t>
         </is>
       </c>
-      <c r="H81" t="n">
-        <v>1754.03</v>
-      </c>
-      <c r="I81" t="n">
-        <v>1851.5</v>
-      </c>
-      <c r="J81" t="n">
-        <v>97.47000000000003</v>
-      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3324,15 +2589,6 @@
           <t>好</t>
         </is>
       </c>
-      <c r="H82" t="n">
-        <v>1851.5</v>
-      </c>
-      <c r="I82" t="n">
-        <v>1853.09</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1.589999999999918</v>
-      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3360,15 +2616,6 @@
           <t>中</t>
         </is>
       </c>
-      <c r="H83" t="n">
-        <v>1853.09</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1869.38</v>
-      </c>
-      <c r="J83" t="n">
-        <v>16.29000000000019</v>
-      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3396,15 +2643,6 @@
           <t>好</t>
         </is>
       </c>
-      <c r="H84" t="n">
-        <v>1869.38</v>
-      </c>
-      <c r="I84" t="n">
-        <v>1870.84</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1.459999999999809</v>
-      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3432,15 +2670,6 @@
           <t>中</t>
         </is>
       </c>
-      <c r="H85" t="n">
-        <v>1870.84</v>
-      </c>
-      <c r="I85" t="n">
-        <v>1872.84</v>
-      </c>
-      <c r="J85" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3468,15 +2697,6 @@
           <t>好</t>
         </is>
       </c>
-      <c r="H86" t="n">
-        <v>1872.84</v>
-      </c>
-      <c r="I86" t="n">
-        <v>1877.31</v>
-      </c>
-      <c r="J86" t="n">
-        <v>4.470000000000027</v>
-      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3504,15 +2724,6 @@
           <t>中</t>
         </is>
       </c>
-      <c r="H87" t="n">
-        <v>1877.31</v>
-      </c>
-      <c r="I87" t="n">
-        <v>1883.22</v>
-      </c>
-      <c r="J87" t="n">
-        <v>5.910000000000082</v>
-      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3540,15 +2751,6 @@
           <t>好</t>
         </is>
       </c>
-      <c r="H88" t="n">
-        <v>1883.22</v>
-      </c>
-      <c r="I88" t="n">
-        <v>1885.44</v>
-      </c>
-      <c r="J88" t="n">
-        <v>2.220000000000027</v>
-      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3576,15 +2778,6 @@
           <t>中</t>
         </is>
       </c>
-      <c r="H89" t="n">
-        <v>1885.44</v>
-      </c>
-      <c r="I89" t="n">
-        <v>1901.31</v>
-      </c>
-      <c r="J89" t="n">
-        <v>15.86999999999989</v>
-      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3612,15 +2805,6 @@
           <t>好</t>
         </is>
       </c>
-      <c r="H90" t="n">
-        <v>1901.31</v>
-      </c>
-      <c r="I90" t="n">
-        <v>1911</v>
-      </c>
-      <c r="J90" t="n">
-        <v>9.690000000000055</v>
-      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3648,15 +2832,6 @@
           <t>中</t>
         </is>
       </c>
-      <c r="H91" t="n">
-        <v>1911</v>
-      </c>
-      <c r="I91" t="n">
-        <v>1931.66</v>
-      </c>
-      <c r="J91" t="n">
-        <v>20.66000000000008</v>
-      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3684,15 +2859,6 @@
           <t>好</t>
         </is>
       </c>
-      <c r="H92" t="n">
-        <v>1931.66</v>
-      </c>
-      <c r="I92" t="n">
-        <v>1933</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1.339999999999918</v>
-      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3720,15 +2886,6 @@
           <t>中</t>
         </is>
       </c>
-      <c r="H93" t="n">
-        <v>1933</v>
-      </c>
-      <c r="I93" t="n">
-        <v>1940.72</v>
-      </c>
-      <c r="J93" t="n">
-        <v>7.720000000000027</v>
-      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3756,15 +2913,6 @@
           <t>好</t>
         </is>
       </c>
-      <c r="H94" t="n">
-        <v>1940.72</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1942.91</v>
-      </c>
-      <c r="J94" t="n">
-        <v>2.190000000000055</v>
-      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3792,15 +2940,6 @@
           <t>中</t>
         </is>
       </c>
-      <c r="H95" t="n">
-        <v>1942.91</v>
-      </c>
-      <c r="I95" t="n">
-        <v>1946.53</v>
-      </c>
-      <c r="J95" t="n">
-        <v>3.619999999999891</v>
-      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3828,15 +2967,6 @@
           <t>好</t>
         </is>
       </c>
-      <c r="H96" t="n">
-        <v>1946.53</v>
-      </c>
-      <c r="I96" t="n">
-        <v>1947.72</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1.190000000000055</v>
-      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3864,15 +2994,6 @@
           <t>中</t>
         </is>
       </c>
-      <c r="H97" t="n">
-        <v>1947.72</v>
-      </c>
-      <c r="I97" t="n">
-        <v>1949.12</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1.399999999999864</v>
-      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3900,15 +3021,6 @@
           <t>好</t>
         </is>
       </c>
-      <c r="H98" t="n">
-        <v>1949.12</v>
-      </c>
-      <c r="I98" t="n">
-        <v>1956.94</v>
-      </c>
-      <c r="J98" t="n">
-        <v>7.820000000000164</v>
-      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3936,15 +3048,6 @@
           <t>中</t>
         </is>
       </c>
-      <c r="H99" t="n">
-        <v>1956.94</v>
-      </c>
-      <c r="I99" t="n">
-        <v>1961.19</v>
-      </c>
-      <c r="J99" t="n">
-        <v>4.25</v>
-      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3972,15 +3075,6 @@
           <t>好</t>
         </is>
       </c>
-      <c r="H100" t="n">
-        <v>1961.19</v>
-      </c>
-      <c r="I100" t="n">
-        <v>1967.28</v>
-      </c>
-      <c r="J100" t="n">
-        <v>6.089999999999918</v>
-      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4005,17 +3099,8 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>中中中</t>
-        </is>
-      </c>
-      <c r="H101" t="n">
-        <v>1969.28</v>
-      </c>
-      <c r="I101" t="n">
-        <v>1971.62</v>
-      </c>
-      <c r="J101" t="n">
-        <v>2.339999999999918</v>
+          <t>中</t>
+        </is>
       </c>
     </row>
     <row r="102">
@@ -4044,15 +3129,6 @@
           <t>好</t>
         </is>
       </c>
-      <c r="H102" t="n">
-        <v>1971.62</v>
-      </c>
-      <c r="I102" t="n">
-        <v>1973.75</v>
-      </c>
-      <c r="J102" t="n">
-        <v>2.130000000000109</v>
-      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4080,15 +3156,6 @@
           <t>中</t>
         </is>
       </c>
-      <c r="H103" t="n">
-        <v>1973.75</v>
-      </c>
-      <c r="I103" t="n">
-        <v>1975.38</v>
-      </c>
-      <c r="J103" t="n">
-        <v>1.630000000000109</v>
-      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4116,15 +3183,6 @@
           <t>好</t>
         </is>
       </c>
-      <c r="H104" t="n">
-        <v>1975.38</v>
-      </c>
-      <c r="I104" t="n">
-        <v>1977.5</v>
-      </c>
-      <c r="J104" t="n">
-        <v>2.119999999999891</v>
-      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4152,15 +3210,6 @@
           <t>中</t>
         </is>
       </c>
-      <c r="H105" t="n">
-        <v>1977.5</v>
-      </c>
-      <c r="I105" t="n">
-        <v>1991.97</v>
-      </c>
-      <c r="J105" t="n">
-        <v>14.47000000000003</v>
-      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4188,15 +3237,6 @@
           <t>好</t>
         </is>
       </c>
-      <c r="H106" t="n">
-        <v>1991.97</v>
-      </c>
-      <c r="I106" t="n">
-        <v>1996.72</v>
-      </c>
-      <c r="J106" t="n">
-        <v>4.75</v>
-      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4224,15 +3264,6 @@
           <t>中</t>
         </is>
       </c>
-      <c r="H107" t="n">
-        <v>1996.72</v>
-      </c>
-      <c r="I107" t="n">
-        <v>1997.88</v>
-      </c>
-      <c r="J107" t="n">
-        <v>1.160000000000082</v>
-      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4260,15 +3291,6 @@
           <t>好</t>
         </is>
       </c>
-      <c r="H108" t="n">
-        <v>1997.88</v>
-      </c>
-      <c r="I108" t="n">
-        <v>1999.06</v>
-      </c>
-      <c r="J108" t="n">
-        <v>1.179999999999836</v>
-      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4296,15 +3318,6 @@
           <t>中</t>
         </is>
       </c>
-      <c r="H109" t="n">
-        <v>1999.06</v>
-      </c>
-      <c r="I109" t="n">
-        <v>2009.66</v>
-      </c>
-      <c r="J109" t="n">
-        <v>10.60000000000014</v>
-      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4332,15 +3345,6 @@
           <t>好</t>
         </is>
       </c>
-      <c r="H110" t="n">
-        <v>2009.66</v>
-      </c>
-      <c r="I110" t="n">
-        <v>2010.97</v>
-      </c>
-      <c r="J110" t="n">
-        <v>1.309999999999945</v>
-      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4368,15 +3372,6 @@
           <t>中</t>
         </is>
       </c>
-      <c r="H111" t="n">
-        <v>2010.97</v>
-      </c>
-      <c r="I111" t="n">
-        <v>2017.47</v>
-      </c>
-      <c r="J111" t="n">
-        <v>6.5</v>
-      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4404,15 +3399,6 @@
           <t>好</t>
         </is>
       </c>
-      <c r="H112" t="n">
-        <v>2017.47</v>
-      </c>
-      <c r="I112" t="n">
-        <v>2020.94</v>
-      </c>
-      <c r="J112" t="n">
-        <v>3.470000000000027</v>
-      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4440,15 +3426,6 @@
           <t>中</t>
         </is>
       </c>
-      <c r="H113" t="n">
-        <v>2020.94</v>
-      </c>
-      <c r="I113" t="n">
-        <v>2025.22</v>
-      </c>
-      <c r="J113" t="n">
-        <v>4.279999999999973</v>
-      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4476,15 +3453,6 @@
           <t>好</t>
         </is>
       </c>
-      <c r="H114" t="n">
-        <v>2025.22</v>
-      </c>
-      <c r="I114" t="n">
-        <v>2031.47</v>
-      </c>
-      <c r="J114" t="n">
-        <v>6.25</v>
-      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4512,15 +3480,6 @@
           <t>中</t>
         </is>
       </c>
-      <c r="H115" t="n">
-        <v>2031.47</v>
-      </c>
-      <c r="I115" t="n">
-        <v>2036.78</v>
-      </c>
-      <c r="J115" t="n">
-        <v>5.309999999999945</v>
-      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4548,15 +3507,6 @@
           <t>好</t>
         </is>
       </c>
-      <c r="H116" t="n">
-        <v>2036.78</v>
-      </c>
-      <c r="I116" t="n">
-        <v>2037.91</v>
-      </c>
-      <c r="J116" t="n">
-        <v>1.130000000000109</v>
-      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4584,15 +3534,6 @@
           <t>中</t>
         </is>
       </c>
-      <c r="H117" t="n">
-        <v>2037.91</v>
-      </c>
-      <c r="I117" t="n">
-        <v>2039.62</v>
-      </c>
-      <c r="J117" t="n">
-        <v>1.709999999999809</v>
-      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4620,15 +3561,6 @@
           <t>好</t>
         </is>
       </c>
-      <c r="H118" t="n">
-        <v>2039.62</v>
-      </c>
-      <c r="I118" t="n">
-        <v>2040.66</v>
-      </c>
-      <c r="J118" t="n">
-        <v>1.040000000000191</v>
-      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4656,15 +3588,6 @@
           <t>中</t>
         </is>
       </c>
-      <c r="H119" t="n">
-        <v>2040.66</v>
-      </c>
-      <c r="I119" t="n">
-        <v>2048.78</v>
-      </c>
-      <c r="J119" t="n">
-        <v>8.120000000000118</v>
-      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4692,15 +3615,6 @@
           <t>好</t>
         </is>
       </c>
-      <c r="H120" t="n">
-        <v>2048.78</v>
-      </c>
-      <c r="I120" t="n">
-        <v>2049.84</v>
-      </c>
-      <c r="J120" t="n">
-        <v>1.059999999999945</v>
-      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4728,15 +3642,6 @@
           <t>中</t>
         </is>
       </c>
-      <c r="H121" t="n">
-        <v>2049.84</v>
-      </c>
-      <c r="I121" t="n">
-        <v>2072</v>
-      </c>
-      <c r="J121" t="n">
-        <v>22.15999999999985</v>
-      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4764,15 +3669,6 @@
           <t>差</t>
         </is>
       </c>
-      <c r="H122" t="n">
-        <v>2072</v>
-      </c>
-      <c r="I122" t="n">
-        <v>2079.81</v>
-      </c>
-      <c r="J122" t="n">
-        <v>7.809999999999945</v>
-      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4800,15 +3696,6 @@
           <t>中</t>
         </is>
       </c>
-      <c r="H123" t="n">
-        <v>2079.81</v>
-      </c>
-      <c r="I123" t="n">
-        <v>2082.31</v>
-      </c>
-      <c r="J123" t="n">
-        <v>2.5</v>
-      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4836,15 +3723,6 @@
           <t>好</t>
         </is>
       </c>
-      <c r="H124" t="n">
-        <v>2082.31</v>
-      </c>
-      <c r="I124" t="n">
-        <v>2083.66</v>
-      </c>
-      <c r="J124" t="n">
-        <v>1.349999999999909</v>
-      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4872,15 +3750,6 @@
           <t>中</t>
         </is>
       </c>
-      <c r="H125" t="n">
-        <v>2083.66</v>
-      </c>
-      <c r="I125" t="n">
-        <v>2093.47</v>
-      </c>
-      <c r="J125" t="n">
-        <v>9.809999999999945</v>
-      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4908,15 +3777,6 @@
           <t>好</t>
         </is>
       </c>
-      <c r="H126" t="n">
-        <v>2093.47</v>
-      </c>
-      <c r="I126" t="n">
-        <v>2094.62</v>
-      </c>
-      <c r="J126" t="n">
-        <v>1.150000000000091</v>
-      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4944,15 +3804,6 @@
           <t>中</t>
         </is>
       </c>
-      <c r="H127" t="n">
-        <v>2094.62</v>
-      </c>
-      <c r="I127" t="n">
-        <v>2098.06</v>
-      </c>
-      <c r="J127" t="n">
-        <v>3.440000000000055</v>
-      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4980,15 +3831,6 @@
           <t>好</t>
         </is>
       </c>
-      <c r="H128" t="n">
-        <v>2098.06</v>
-      </c>
-      <c r="I128" t="n">
-        <v>2101.44</v>
-      </c>
-      <c r="J128" t="n">
-        <v>3.380000000000109</v>
-      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5016,15 +3858,6 @@
           <t>中</t>
         </is>
       </c>
-      <c r="H129" t="n">
-        <v>2101.44</v>
-      </c>
-      <c r="I129" t="n">
-        <v>2104.88</v>
-      </c>
-      <c r="J129" t="n">
-        <v>3.440000000000055</v>
-      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5052,15 +3885,6 @@
           <t>好</t>
         </is>
       </c>
-      <c r="H130" t="n">
-        <v>2104.88</v>
-      </c>
-      <c r="I130" t="n">
-        <v>2109.12</v>
-      </c>
-      <c r="J130" t="n">
-        <v>4.239999999999782</v>
-      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5088,15 +3912,6 @@
           <t>中</t>
         </is>
       </c>
-      <c r="H131" t="n">
-        <v>2109.12</v>
-      </c>
-      <c r="I131" t="n">
-        <v>2110.72</v>
-      </c>
-      <c r="J131" t="n">
-        <v>1.599999999999909</v>
-      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5124,15 +3939,6 @@
           <t>好</t>
         </is>
       </c>
-      <c r="H132" t="n">
-        <v>2110.72</v>
-      </c>
-      <c r="I132" t="n">
-        <v>2114.19</v>
-      </c>
-      <c r="J132" t="n">
-        <v>3.470000000000255</v>
-      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5160,15 +3966,6 @@
           <t>中</t>
         </is>
       </c>
-      <c r="H133" t="n">
-        <v>2114.19</v>
-      </c>
-      <c r="I133" t="n">
-        <v>2126.31</v>
-      </c>
-      <c r="J133" t="n">
-        <v>12.11999999999989</v>
-      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5196,15 +3993,6 @@
           <t>好</t>
         </is>
       </c>
-      <c r="H134" t="n">
-        <v>2126.31</v>
-      </c>
-      <c r="I134" t="n">
-        <v>2136.09</v>
-      </c>
-      <c r="J134" t="n">
-        <v>9.7800000000002</v>
-      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5232,15 +4020,6 @@
           <t>中</t>
         </is>
       </c>
-      <c r="H135" t="n">
-        <v>2136.09</v>
-      </c>
-      <c r="I135" t="n">
-        <v>2137.81</v>
-      </c>
-      <c r="J135" t="n">
-        <v>1.7199999999998</v>
-      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5268,15 +4047,6 @@
           <t>好</t>
         </is>
       </c>
-      <c r="H136" t="n">
-        <v>2137.81</v>
-      </c>
-      <c r="I136" t="n">
-        <v>2140.81</v>
-      </c>
-      <c r="J136" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5304,15 +4074,6 @@
           <t>中</t>
         </is>
       </c>
-      <c r="H137" t="n">
-        <v>2140.81</v>
-      </c>
-      <c r="I137" t="n">
-        <v>2143.5</v>
-      </c>
-      <c r="J137" t="n">
-        <v>2.690000000000055</v>
-      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5340,15 +4101,6 @@
           <t>好</t>
         </is>
       </c>
-      <c r="H138" t="n">
-        <v>2143.5</v>
-      </c>
-      <c r="I138" t="n">
-        <v>2148.19</v>
-      </c>
-      <c r="J138" t="n">
-        <v>4.690000000000055</v>
-      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5376,15 +4128,6 @@
           <t>中</t>
         </is>
       </c>
-      <c r="H139" t="n">
-        <v>2148.19</v>
-      </c>
-      <c r="I139" t="n">
-        <v>2149.62</v>
-      </c>
-      <c r="J139" t="n">
-        <v>1.429999999999836</v>
-      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5412,15 +4155,6 @@
           <t>好</t>
         </is>
       </c>
-      <c r="H140" t="n">
-        <v>2149.62</v>
-      </c>
-      <c r="I140" t="n">
-        <v>2153</v>
-      </c>
-      <c r="J140" t="n">
-        <v>3.380000000000109</v>
-      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5448,15 +4182,6 @@
           <t>中</t>
         </is>
       </c>
-      <c r="H141" t="n">
-        <v>2153</v>
-      </c>
-      <c r="I141" t="n">
-        <v>2163.97</v>
-      </c>
-      <c r="J141" t="n">
-        <v>10.9699999999998</v>
-      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5484,15 +4209,6 @@
           <t>好</t>
         </is>
       </c>
-      <c r="H142" t="n">
-        <v>2163.97</v>
-      </c>
-      <c r="I142" t="n">
-        <v>2167.56</v>
-      </c>
-      <c r="J142" t="n">
-        <v>3.590000000000146</v>
-      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5520,15 +4236,6 @@
           <t>中</t>
         </is>
       </c>
-      <c r="H143" t="n">
-        <v>2167.56</v>
-      </c>
-      <c r="I143" t="n">
-        <v>2171.41</v>
-      </c>
-      <c r="J143" t="n">
-        <v>3.849999999999909</v>
-      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5556,15 +4263,6 @@
           <t>好</t>
         </is>
       </c>
-      <c r="H144" t="n">
-        <v>2171.41</v>
-      </c>
-      <c r="I144" t="n">
-        <v>2179.28</v>
-      </c>
-      <c r="J144" t="n">
-        <v>7.870000000000346</v>
-      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5592,15 +4290,6 @@
           <t>中</t>
         </is>
       </c>
-      <c r="H145" t="n">
-        <v>2179.28</v>
-      </c>
-      <c r="I145" t="n">
-        <v>2182.72</v>
-      </c>
-      <c r="J145" t="n">
-        <v>3.4399999999996</v>
-      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5628,15 +4317,6 @@
           <t>好</t>
         </is>
       </c>
-      <c r="H146" t="n">
-        <v>2182.72</v>
-      </c>
-      <c r="I146" t="n">
-        <v>2191</v>
-      </c>
-      <c r="J146" t="n">
-        <v>8.2800000000002</v>
-      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5664,15 +4344,6 @@
           <t>中</t>
         </is>
       </c>
-      <c r="H147" t="n">
-        <v>2191</v>
-      </c>
-      <c r="I147" t="n">
-        <v>2193.16</v>
-      </c>
-      <c r="J147" t="n">
-        <v>2.159999999999854</v>
-      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5700,15 +4371,6 @@
           <t>好</t>
         </is>
       </c>
-      <c r="H148" t="n">
-        <v>2193.16</v>
-      </c>
-      <c r="I148" t="n">
-        <v>2197.44</v>
-      </c>
-      <c r="J148" t="n">
-        <v>4.2800000000002</v>
-      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5736,15 +4398,6 @@
           <t>中</t>
         </is>
       </c>
-      <c r="H149" t="n">
-        <v>2197.44</v>
-      </c>
-      <c r="I149" t="n">
-        <v>2206.06</v>
-      </c>
-      <c r="J149" t="n">
-        <v>8.619999999999891</v>
-      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5772,15 +4425,6 @@
           <t>好</t>
         </is>
       </c>
-      <c r="H150" t="n">
-        <v>2206.06</v>
-      </c>
-      <c r="I150" t="n">
-        <v>2217.47</v>
-      </c>
-      <c r="J150" t="n">
-        <v>11.40999999999985</v>
-      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5808,15 +4452,6 @@
           <t>中</t>
         </is>
       </c>
-      <c r="H151" t="n">
-        <v>2217.47</v>
-      </c>
-      <c r="I151" t="n">
-        <v>2253.38</v>
-      </c>
-      <c r="J151" t="n">
-        <v>35.91000000000031</v>
-      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5844,15 +4479,6 @@
           <t>好</t>
         </is>
       </c>
-      <c r="H152" t="n">
-        <v>2253.38</v>
-      </c>
-      <c r="I152" t="n">
-        <v>2255.53</v>
-      </c>
-      <c r="J152" t="n">
-        <v>2.150000000000091</v>
-      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5880,15 +4506,6 @@
           <t>中</t>
         </is>
       </c>
-      <c r="H153" t="n">
-        <v>2255.53</v>
-      </c>
-      <c r="I153" t="n">
-        <v>2273.94</v>
-      </c>
-      <c r="J153" t="n">
-        <v>18.40999999999985</v>
-      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5916,15 +4533,6 @@
           <t>好</t>
         </is>
       </c>
-      <c r="H154" t="n">
-        <v>2273.94</v>
-      </c>
-      <c r="I154" t="n">
-        <v>2292.59</v>
-      </c>
-      <c r="J154" t="n">
-        <v>18.65000000000009</v>
-      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5952,15 +4560,6 @@
           <t>中</t>
         </is>
       </c>
-      <c r="H155" t="n">
-        <v>2292.59</v>
-      </c>
-      <c r="I155" t="n">
-        <v>2296.06</v>
-      </c>
-      <c r="J155" t="n">
-        <v>3.4699999999998</v>
-      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5988,15 +4587,6 @@
           <t>好</t>
         </is>
       </c>
-      <c r="H156" t="n">
-        <v>2296.06</v>
-      </c>
-      <c r="I156" t="n">
-        <v>2303.41</v>
-      </c>
-      <c r="J156" t="n">
-        <v>7.349999999999909</v>
-      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6024,15 +4614,6 @@
           <t>中</t>
         </is>
       </c>
-      <c r="H157" t="n">
-        <v>2303.41</v>
-      </c>
-      <c r="I157" t="n">
-        <v>2307.88</v>
-      </c>
-      <c r="J157" t="n">
-        <v>4.470000000000255</v>
-      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6060,15 +4641,6 @@
           <t>好</t>
         </is>
       </c>
-      <c r="H158" t="n">
-        <v>2307.88</v>
-      </c>
-      <c r="I158" t="n">
-        <v>2315.97</v>
-      </c>
-      <c r="J158" t="n">
-        <v>8.089999999999691</v>
-      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6096,15 +4668,6 @@
           <t>中</t>
         </is>
       </c>
-      <c r="H159" t="n">
-        <v>2315.97</v>
-      </c>
-      <c r="I159" t="n">
-        <v>2320.5</v>
-      </c>
-      <c r="J159" t="n">
-        <v>4.5300000000002</v>
-      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6132,15 +4695,6 @@
           <t>好</t>
         </is>
       </c>
-      <c r="H160" t="n">
-        <v>2320.5</v>
-      </c>
-      <c r="I160" t="n">
-        <v>2323.22</v>
-      </c>
-      <c r="J160" t="n">
-        <v>2.7199999999998</v>
-      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6168,15 +4722,6 @@
           <t>中</t>
         </is>
       </c>
-      <c r="H161" t="n">
-        <v>2323.22</v>
-      </c>
-      <c r="I161" t="n">
-        <v>2331.28</v>
-      </c>
-      <c r="J161" t="n">
-        <v>8.0600000000004</v>
-      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6204,15 +4749,6 @@
           <t>好</t>
         </is>
       </c>
-      <c r="H162" t="n">
-        <v>2331.28</v>
-      </c>
-      <c r="I162" t="n">
-        <v>2332.34</v>
-      </c>
-      <c r="J162" t="n">
-        <v>1.059999999999945</v>
-      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6240,15 +4776,6 @@
           <t>中</t>
         </is>
       </c>
-      <c r="H163" t="n">
-        <v>2332.34</v>
-      </c>
-      <c r="I163" t="n">
-        <v>2335.16</v>
-      </c>
-      <c r="J163" t="n">
-        <v>2.819999999999709</v>
-      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6276,15 +4803,6 @@
           <t>好</t>
         </is>
       </c>
-      <c r="H164" t="n">
-        <v>2335.16</v>
-      </c>
-      <c r="I164" t="n">
-        <v>2340.34</v>
-      </c>
-      <c r="J164" t="n">
-        <v>5.180000000000291</v>
-      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6312,15 +4830,6 @@
           <t>中</t>
         </is>
       </c>
-      <c r="H165" t="n">
-        <v>2340.34</v>
-      </c>
-      <c r="I165" t="n">
-        <v>2343.56</v>
-      </c>
-      <c r="J165" t="n">
-        <v>3.2199999999998</v>
-      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6348,15 +4857,6 @@
           <t>好</t>
         </is>
       </c>
-      <c r="H166" t="n">
-        <v>2343.56</v>
-      </c>
-      <c r="I166" t="n">
-        <v>2349.5</v>
-      </c>
-      <c r="J166" t="n">
-        <v>5.940000000000055</v>
-      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6384,15 +4884,6 @@
           <t>中</t>
         </is>
       </c>
-      <c r="H167" t="n">
-        <v>2349.5</v>
-      </c>
-      <c r="I167" t="n">
-        <v>2372.62</v>
-      </c>
-      <c r="J167" t="n">
-        <v>23.11999999999989</v>
-      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6420,15 +4911,6 @@
           <t>好</t>
         </is>
       </c>
-      <c r="H168" t="n">
-        <v>2372.62</v>
-      </c>
-      <c r="I168" t="n">
-        <v>2373.69</v>
-      </c>
-      <c r="J168" t="n">
-        <v>1.070000000000164</v>
-      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6456,15 +4938,6 @@
           <t>中</t>
         </is>
       </c>
-      <c r="H169" t="n">
-        <v>2373.69</v>
-      </c>
-      <c r="I169" t="n">
-        <v>2381.62</v>
-      </c>
-      <c r="J169" t="n">
-        <v>7.929999999999836</v>
-      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6492,15 +4965,6 @@
           <t>好</t>
         </is>
       </c>
-      <c r="H170" t="n">
-        <v>2381.62</v>
-      </c>
-      <c r="I170" t="n">
-        <v>2383.69</v>
-      </c>
-      <c r="J170" t="n">
-        <v>2.070000000000164</v>
-      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6528,15 +4992,6 @@
           <t>中</t>
         </is>
       </c>
-      <c r="H171" t="n">
-        <v>2383.69</v>
-      </c>
-      <c r="I171" t="n">
-        <v>2384.81</v>
-      </c>
-      <c r="J171" t="n">
-        <v>1.119999999999891</v>
-      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6564,15 +5019,6 @@
           <t>好</t>
         </is>
       </c>
-      <c r="H172" t="n">
-        <v>2384.81</v>
-      </c>
-      <c r="I172" t="n">
-        <v>2386.25</v>
-      </c>
-      <c r="J172" t="n">
-        <v>1.440000000000055</v>
-      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6600,15 +5046,6 @@
           <t>中</t>
         </is>
       </c>
-      <c r="H173" t="n">
-        <v>2386.25</v>
-      </c>
-      <c r="I173" t="n">
-        <v>2391.38</v>
-      </c>
-      <c r="J173" t="n">
-        <v>5.130000000000109</v>
-      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6636,15 +5073,6 @@
           <t>好</t>
         </is>
       </c>
-      <c r="H174" t="n">
-        <v>2391.38</v>
-      </c>
-      <c r="I174" t="n">
-        <v>2654.12</v>
-      </c>
-      <c r="J174" t="n">
-        <v>262.7399999999998</v>
-      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6672,15 +5100,6 @@
           <t>中</t>
         </is>
       </c>
-      <c r="H175" t="n">
-        <v>2654.12</v>
-      </c>
-      <c r="I175" t="n">
-        <v>2658.25</v>
-      </c>
-      <c r="J175" t="n">
-        <v>4.130000000000109</v>
-      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6708,15 +5127,6 @@
           <t>好</t>
         </is>
       </c>
-      <c r="H176" t="n">
-        <v>2658.25</v>
-      </c>
-      <c r="I176" t="n">
-        <v>2676.94</v>
-      </c>
-      <c r="J176" t="n">
-        <v>18.69000000000005</v>
-      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6744,15 +5154,6 @@
           <t>中</t>
         </is>
       </c>
-      <c r="H177" t="n">
-        <v>2676.94</v>
-      </c>
-      <c r="I177" t="n">
-        <v>2678.66</v>
-      </c>
-      <c r="J177" t="n">
-        <v>1.7199999999998</v>
-      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6780,15 +5181,6 @@
           <t>好</t>
         </is>
       </c>
-      <c r="H178" t="n">
-        <v>2678.66</v>
-      </c>
-      <c r="I178" t="n">
-        <v>2710.91</v>
-      </c>
-      <c r="J178" t="n">
-        <v>32.25</v>
-      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6816,15 +5208,6 @@
           <t>中</t>
         </is>
       </c>
-      <c r="H179" t="n">
-        <v>2710.91</v>
-      </c>
-      <c r="I179" t="n">
-        <v>2712.56</v>
-      </c>
-      <c r="J179" t="n">
-        <v>1.650000000000091</v>
-      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6852,15 +5235,6 @@
           <t>好</t>
         </is>
       </c>
-      <c r="H180" t="n">
-        <v>2712.56</v>
-      </c>
-      <c r="I180" t="n">
-        <v>2847.34</v>
-      </c>
-      <c r="J180" t="n">
-        <v>134.7800000000002</v>
-      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6888,15 +5262,6 @@
           <t>中</t>
         </is>
       </c>
-      <c r="H181" t="n">
-        <v>2847.34</v>
-      </c>
-      <c r="I181" t="n">
-        <v>2848.91</v>
-      </c>
-      <c r="J181" t="n">
-        <v>1.569999999999709</v>
-      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6924,15 +5289,6 @@
           <t>好</t>
         </is>
       </c>
-      <c r="H182" t="n">
-        <v>2848.91</v>
-      </c>
-      <c r="I182" t="n">
-        <v>2885.28</v>
-      </c>
-      <c r="J182" t="n">
-        <v>36.37000000000035</v>
-      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6960,15 +5316,6 @@
           <t>中</t>
         </is>
       </c>
-      <c r="H183" t="n">
-        <v>2885.28</v>
-      </c>
-      <c r="I183" t="n">
-        <v>2890.97</v>
-      </c>
-      <c r="J183" t="n">
-        <v>5.6899999999996</v>
-      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6996,15 +5343,6 @@
           <t>好</t>
         </is>
       </c>
-      <c r="H184" t="n">
-        <v>2890.97</v>
-      </c>
-      <c r="I184" t="n">
-        <v>2892.09</v>
-      </c>
-      <c r="J184" t="n">
-        <v>1.120000000000346</v>
-      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7032,15 +5370,6 @@
           <t>中</t>
         </is>
       </c>
-      <c r="H185" t="n">
-        <v>2892.09</v>
-      </c>
-      <c r="I185" t="n">
-        <v>2895.06</v>
-      </c>
-      <c r="J185" t="n">
-        <v>2.9699999999998</v>
-      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7068,15 +5397,6 @@
           <t>好</t>
         </is>
       </c>
-      <c r="H186" t="n">
-        <v>2895.06</v>
-      </c>
-      <c r="I186" t="n">
-        <v>2901</v>
-      </c>
-      <c r="J186" t="n">
-        <v>5.940000000000055</v>
-      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7104,15 +5424,6 @@
           <t>中</t>
         </is>
       </c>
-      <c r="H187" t="n">
-        <v>2901</v>
-      </c>
-      <c r="I187" t="n">
-        <v>2917.56</v>
-      </c>
-      <c r="J187" t="n">
-        <v>16.55999999999995</v>
-      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7140,15 +5451,6 @@
           <t>差</t>
         </is>
       </c>
-      <c r="H188" t="n">
-        <v>2917.56</v>
-      </c>
-      <c r="I188" t="n">
-        <v>2921.66</v>
-      </c>
-      <c r="J188" t="n">
-        <v>4.099999999999909</v>
-      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7176,15 +5478,6 @@
           <t>中</t>
         </is>
       </c>
-      <c r="H189" t="n">
-        <v>2921.66</v>
-      </c>
-      <c r="I189" t="n">
-        <v>2939.12</v>
-      </c>
-      <c r="J189" t="n">
-        <v>17.46000000000004</v>
-      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7212,15 +5505,6 @@
           <t>好</t>
         </is>
       </c>
-      <c r="H190" t="n">
-        <v>2939.12</v>
-      </c>
-      <c r="I190" t="n">
-        <v>2942.12</v>
-      </c>
-      <c r="J190" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7248,15 +5532,6 @@
           <t>中</t>
         </is>
       </c>
-      <c r="H191" t="n">
-        <v>2942.12</v>
-      </c>
-      <c r="I191" t="n">
-        <v>2945.75</v>
-      </c>
-      <c r="J191" t="n">
-        <v>3.630000000000109</v>
-      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7284,15 +5559,6 @@
           <t>好</t>
         </is>
       </c>
-      <c r="H192" t="n">
-        <v>2945.75</v>
-      </c>
-      <c r="I192" t="n">
-        <v>2973.78</v>
-      </c>
-      <c r="J192" t="n">
-        <v>28.0300000000002</v>
-      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7320,15 +5586,6 @@
           <t>中</t>
         </is>
       </c>
-      <c r="H193" t="n">
-        <v>2973.78</v>
-      </c>
-      <c r="I193" t="n">
-        <v>2975.38</v>
-      </c>
-      <c r="J193" t="n">
-        <v>1.599999999999909</v>
-      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7356,15 +5613,6 @@
           <t>差</t>
         </is>
       </c>
-      <c r="H194" t="n">
-        <v>2975.38</v>
-      </c>
-      <c r="I194" t="n">
-        <v>2977.16</v>
-      </c>
-      <c r="J194" t="n">
-        <v>1.779999999999745</v>
-      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7392,15 +5640,6 @@
           <t>中</t>
         </is>
       </c>
-      <c r="H195" t="n">
-        <v>2977.16</v>
-      </c>
-      <c r="I195" t="n">
-        <v>2978.44</v>
-      </c>
-      <c r="J195" t="n">
-        <v>1.2800000000002</v>
-      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7428,15 +5667,6 @@
           <t>差</t>
         </is>
       </c>
-      <c r="H196" t="n">
-        <v>2978.44</v>
-      </c>
-      <c r="I196" t="n">
-        <v>2980.53</v>
-      </c>
-      <c r="J196" t="n">
-        <v>2.090000000000146</v>
-      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7464,15 +5694,6 @@
           <t>中</t>
         </is>
       </c>
-      <c r="H197" t="n">
-        <v>2980.53</v>
-      </c>
-      <c r="I197" t="n">
-        <v>2981.97</v>
-      </c>
-      <c r="J197" t="n">
-        <v>1.4399999999996</v>
-      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7500,15 +5721,6 @@
           <t>好</t>
         </is>
       </c>
-      <c r="H198" t="n">
-        <v>2981.97</v>
-      </c>
-      <c r="I198" t="n">
-        <v>3010.12</v>
-      </c>
-      <c r="J198" t="n">
-        <v>28.15000000000009</v>
-      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7536,15 +5748,6 @@
           <t>中</t>
         </is>
       </c>
-      <c r="H199" t="n">
-        <v>3010.12</v>
-      </c>
-      <c r="I199" t="n">
-        <v>3012.94</v>
-      </c>
-      <c r="J199" t="n">
-        <v>2.820000000000164</v>
-      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7572,15 +5775,6 @@
           <t>好</t>
         </is>
       </c>
-      <c r="H200" t="n">
-        <v>3012.94</v>
-      </c>
-      <c r="I200" t="n">
-        <v>3062.53</v>
-      </c>
-      <c r="J200" t="n">
-        <v>49.59000000000015</v>
-      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7608,15 +5802,6 @@
           <t>中</t>
         </is>
       </c>
-      <c r="H201" t="n">
-        <v>3062.53</v>
-      </c>
-      <c r="I201" t="n">
-        <v>3064.94</v>
-      </c>
-      <c r="J201" t="n">
-        <v>2.409999999999854</v>
-      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7644,15 +5829,6 @@
           <t>好</t>
         </is>
       </c>
-      <c r="H202" t="n">
-        <v>3064.94</v>
-      </c>
-      <c r="I202" t="n">
-        <v>3075.31</v>
-      </c>
-      <c r="J202" t="n">
-        <v>10.36999999999989</v>
-      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7680,15 +5856,6 @@
           <t>中</t>
         </is>
       </c>
-      <c r="H203" t="n">
-        <v>3075.31</v>
-      </c>
-      <c r="I203" t="n">
-        <v>3076.44</v>
-      </c>
-      <c r="J203" t="n">
-        <v>1.130000000000109</v>
-      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7716,15 +5883,6 @@
           <t>好</t>
         </is>
       </c>
-      <c r="H204" t="n">
-        <v>3076.44</v>
-      </c>
-      <c r="I204" t="n">
-        <v>3084.94</v>
-      </c>
-      <c r="J204" t="n">
-        <v>8.5</v>
-      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7752,15 +5910,6 @@
           <t>中</t>
         </is>
       </c>
-      <c r="H205" t="n">
-        <v>3084.94</v>
-      </c>
-      <c r="I205" t="n">
-        <v>3089.41</v>
-      </c>
-      <c r="J205" t="n">
-        <v>4.4699999999998</v>
-      </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7788,15 +5937,6 @@
           <t>好</t>
         </is>
       </c>
-      <c r="H206" t="n">
-        <v>3089.41</v>
-      </c>
-      <c r="I206" t="n">
-        <v>3152.72</v>
-      </c>
-      <c r="J206" t="n">
-        <v>63.30999999999995</v>
-      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7824,15 +5964,6 @@
           <t>中</t>
         </is>
       </c>
-      <c r="H207" t="n">
-        <v>3152.72</v>
-      </c>
-      <c r="I207" t="n">
-        <v>3167.84</v>
-      </c>
-      <c r="J207" t="n">
-        <v>15.12000000000035</v>
-      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7860,15 +5991,6 @@
           <t>好</t>
         </is>
       </c>
-      <c r="H208" t="n">
-        <v>3167.84</v>
-      </c>
-      <c r="I208" t="n">
-        <v>3865.31</v>
-      </c>
-      <c r="J208" t="n">
-        <v>697.4699999999998</v>
-      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7896,15 +6018,6 @@
           <t>中</t>
         </is>
       </c>
-      <c r="H209" t="n">
-        <v>3865.31</v>
-      </c>
-      <c r="I209" t="n">
-        <v>3866.34</v>
-      </c>
-      <c r="J209" t="n">
-        <v>1.0300000000002</v>
-      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7932,15 +6045,6 @@
           <t>好</t>
         </is>
       </c>
-      <c r="H210" t="n">
-        <v>3866.34</v>
-      </c>
-      <c r="I210" t="n">
-        <v>4696.16</v>
-      </c>
-      <c r="J210" t="n">
-        <v>829.8199999999997</v>
-      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7968,15 +6072,6 @@
           <t>中</t>
         </is>
       </c>
-      <c r="H211" t="n">
-        <v>4696.16</v>
-      </c>
-      <c r="I211" t="n">
-        <v>4698</v>
-      </c>
-      <c r="J211" t="n">
-        <v>1.840000000000146</v>
-      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8004,15 +6099,6 @@
           <t>好</t>
         </is>
       </c>
-      <c r="H212" t="n">
-        <v>4698</v>
-      </c>
-      <c r="I212" t="n">
-        <v>4701.16</v>
-      </c>
-      <c r="J212" t="n">
-        <v>3.159999999999854</v>
-      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8040,15 +6126,6 @@
           <t>中</t>
         </is>
       </c>
-      <c r="H213" t="n">
-        <v>4701.16</v>
-      </c>
-      <c r="I213" t="n">
-        <v>4704.94</v>
-      </c>
-      <c r="J213" t="n">
-        <v>3.779999999999745</v>
-      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8075,15 +6152,6 @@
         <is>
           <t>好</t>
         </is>
-      </c>
-      <c r="H214" t="n">
-        <v>4704.94</v>
-      </c>
-      <c r="I214" t="n">
-        <v>5053</v>
-      </c>
-      <c r="J214" t="n">
-        <v>348.0600000000004</v>
       </c>
     </row>
   </sheetData>
